--- a/public/filesExcel/templateAllocation.xlsx
+++ b/public/filesExcel/templateAllocation.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Salah\projects_management_system_salah\public\filesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D581A737-1297-4298-A23F-C27305AA9EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDCB8E5-F1C3-490A-B61A-9905B5CC55D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{968E9332-7B49-4115-A4F6-A335BA14C462}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{968E9332-7B49-4115-A4F6-A335BA14C462}"/>
   </bookViews>
   <sheets>
     <sheet name="تخصيصات" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">تخصيصات!$A$1:$R$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">تخصيصات!$A$1:$Q$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">تخصيصات!$1:$1</definedName>
     <definedName name="بيانات_المعيل">#REF!</definedName>
   </definedNames>
@@ -42,20 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
-  <si>
-    <t>عملة</t>
-  </si>
-  <si>
-    <t>المبلغ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>بيان</t>
   </si>
   <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
     <t>بنود التنفيذ</t>
   </si>
   <si>
@@ -93,6 +81,15 @@
   </si>
   <si>
     <t>الرقم</t>
+  </si>
+  <si>
+    <t>تاريخ التخصيص</t>
+  </si>
+  <si>
+    <t>تاريخ التسليم</t>
+  </si>
+  <si>
+    <t>المبلغ دولار</t>
   </si>
 </sst>
 </file>
@@ -100,9 +97,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -176,11 +173,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Simplified Arabic"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -197,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -209,21 +201,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -299,9 +276,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -314,64 +291,61 @@
       <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
@@ -391,70 +365,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="التجار"/>
-      <sheetName val="ما يتم عمله"/>
-      <sheetName val="اجمالي"/>
-      <sheetName val="المناطق"/>
-      <sheetName val="تقرير شهري "/>
-      <sheetName val="حسب المنطقة"/>
-      <sheetName val="تقرير ش"/>
-      <sheetName val="ارصدة المؤسسات"/>
-      <sheetName val="ارصدة الاصناف"/>
-      <sheetName val="صندوق الخارجي"/>
-      <sheetName val="حركات يوميه"/>
-      <sheetName val="سلف"/>
-      <sheetName val="انس"/>
-      <sheetName val="ابو ابراهيم"/>
-      <sheetName val="ابو عصر"/>
-      <sheetName val="ابو يحيى"/>
-      <sheetName val="مبيعات خبز"/>
-      <sheetName val="توزيع مواد تكية"/>
-      <sheetName val="حساب المناصرة"/>
-      <sheetName val="المناصرة"/>
-      <sheetName val="خضار- طرود"/>
-      <sheetName val="ح الوجبات"/>
-      <sheetName val="مؤسسات1"/>
-      <sheetName val="التخصيصات1"/>
-      <sheetName val="تكية"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,13 +668,13 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -786,77 +696,73 @@
     <col min="15" max="15" width="11.109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="26.5546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="18" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:17" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="10"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="17"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="8"/>
       <c r="F2" s="9"/>
       <c r="G2" s="14"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="18"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="L2" s="13"/>
       <c r="M2" s="6"/>
@@ -864,15 +770,11 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:Q2" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.17" top="0.4" bottom="0.25" header="0.31496062992125984" footer="0.18"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="17" max="1048575" man="1"/>
-  </colBreaks>
 </worksheet>
 </file>